--- a/Result-ABS-V2.xlsx
+++ b/Result-ABS-V2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E6ABEA-82A0-42B4-8B7B-9284F79B627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{BC6E07CC-6B7E-47B5-BFA8-B7F67B2C4B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716EEDE6-11D4-4585-92B7-A5CF78533526}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>R1</t>
   </si>
@@ -90,12 +90,15 @@
   <si>
     <t>Standard Deviation</t>
   </si>
+  <si>
+    <t>avarage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2014,9 +2017,9 @@
       <selection activeCell="L201" sqref="L201:L202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>7.9499999999999904</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>10.549999999999899</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>6</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>9</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>10</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>11</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>12</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>13</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>14</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>15</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>16</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>12.4599999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>18</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>19</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>10.815</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>21</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>22</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>23</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>24</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>25</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>11.024999999999901</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>27</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>28</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>29</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>30</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>31</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>394.79999999999899</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>32</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>33</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>34</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>35</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>36</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>37</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>38</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>39</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>12.299999999999899</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>40</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>47</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>48</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>49</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>50</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>51</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>52</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>53</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>54</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>55</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>56</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>57</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>58</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>59</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>60</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>61</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>1433.5</v>
       </c>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>62</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>1555.5</v>
       </c>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>63</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>64</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>65</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>66</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>67</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>68</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>1889.99999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>69</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>1959.99999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>71</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>1453.5</v>
       </c>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>72</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>2194.5</v>
       </c>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>73</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>74</v>
       </c>
@@ -4638,7 +4641,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>75</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>76</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>77</v>
       </c>
@@ -4743,7 +4746,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="79" spans="2:12">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>78</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="80" spans="2:12">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>79</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="81" spans="2:12">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>80</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="82" spans="2:12">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>81</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="83" spans="2:12">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>82</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="84" spans="2:12">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>83</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>84</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>85</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="87" spans="2:12">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>86</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="88" spans="2:12">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>87</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="89" spans="2:12">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>88</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="90" spans="2:12">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>89</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="91" spans="2:12">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>90</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="92" spans="2:12">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>91</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="93" spans="2:12">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>92</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="94" spans="2:12">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>93</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="95" spans="2:12">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>94</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="96" spans="2:12">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>95</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="97" spans="2:12">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>96</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="98" spans="2:12">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>97</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="99" spans="2:12">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>98</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="100" spans="2:12">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>99</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="101" spans="2:12">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>100</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="102" spans="2:12">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>101</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="103" spans="2:12">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>102</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="104" spans="2:12">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>103</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="105" spans="2:12">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>104</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="106" spans="2:12">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>105</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="107" spans="2:12">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>106</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="108" spans="2:12">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>107</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="109" spans="2:12">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>108</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="110" spans="2:12">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>109</v>
       </c>
@@ -5863,7 +5866,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="111" spans="2:12">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>110</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="112" spans="2:12">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>111</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="113" spans="2:12">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>112</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="114" spans="2:12">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>113</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="115" spans="2:12">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>114</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="116" spans="2:12">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>115</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="117" spans="2:12">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>116</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="118" spans="2:12">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>117</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="119" spans="2:12">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>118</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="120" spans="2:12">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>119</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="121" spans="2:12">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>120</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="122" spans="2:12">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>121</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="123" spans="2:12">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>122</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="124" spans="2:12">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>123</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="125" spans="2:12">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>124</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="126" spans="2:12">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>125</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="127" spans="2:12">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>126</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="128" spans="2:12">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>127</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="129" spans="2:12">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>128</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="130" spans="2:12">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>129</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="131" spans="2:12">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>130</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="132" spans="2:12">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>131</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="133" spans="2:12">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>132</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="134" spans="2:12">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>133</v>
       </c>
@@ -6703,7 +6706,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="135" spans="2:12">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>134</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="136" spans="2:12">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>135</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="137" spans="2:12">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>136</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="138" spans="2:12">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>137</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="139" spans="2:12">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>138</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="140" spans="2:12">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>139</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="141" spans="2:12">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>140</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="142" spans="2:12">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>141</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="143" spans="2:12">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>142</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="144" spans="2:12">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>143</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="145" spans="2:12">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>144</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="146" spans="2:12">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>145</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="147" spans="2:12">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>146</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="148" spans="2:12">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>147</v>
       </c>
@@ -7193,7 +7196,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="149" spans="2:12">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>148</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="150" spans="2:12">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>149</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="151" spans="2:12">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>150</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="152" spans="2:12">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>151</v>
       </c>
@@ -7333,7 +7336,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="153" spans="2:12">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>152</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="154" spans="2:12">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>153</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="155" spans="2:12">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>154</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="156" spans="2:12">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>155</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="157" spans="2:12">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>156</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="158" spans="2:12">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>157</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="159" spans="2:12">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>158</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="160" spans="2:12">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>159</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="161" spans="2:12">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>160</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="162" spans="2:12">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>161</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="163" spans="2:12">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>162</v>
       </c>
@@ -7718,7 +7721,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="164" spans="2:12">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>163</v>
       </c>
@@ -7753,7 +7756,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="165" spans="2:12">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>164</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="166" spans="2:12">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>165</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="167" spans="2:12">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>166</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="168" spans="2:12">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>167</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="169" spans="2:12">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>168</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="170" spans="2:12">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>169</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="171" spans="2:12">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>170</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="172" spans="2:12">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>171</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="173" spans="2:12">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>172</v>
       </c>
@@ -8068,7 +8071,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="174" spans="2:12">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>173</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="175" spans="2:12">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>174</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="176" spans="2:12">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>175</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="177" spans="2:12">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>176</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="178" spans="2:12">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>177</v>
       </c>
@@ -8243,7 +8246,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="179" spans="2:12">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>178</v>
       </c>
@@ -8278,7 +8281,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="180" spans="2:12">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>179</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="181" spans="2:12">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>180</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="182" spans="2:12">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>181</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="183" spans="2:12">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>182</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="184" spans="2:12">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>183</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="185" spans="2:12">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>184</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="186" spans="2:12">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>185</v>
       </c>
@@ -8523,7 +8526,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="187" spans="2:12">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>186</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="188" spans="2:12">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>187</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="189" spans="2:12">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>188</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="190" spans="2:12">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>189</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="191" spans="2:12">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>190</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="192" spans="2:12">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>191</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="193" spans="2:12">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>192</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="194" spans="2:12">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>193</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="195" spans="2:12">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>194</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="196" spans="2:12">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>195</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="197" spans="2:12">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>196</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="198" spans="2:12">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>197</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="199" spans="2:12">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>198</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="200" spans="2:12">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>199</v>
       </c>
@@ -9013,7 +9016,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="201" spans="2:12">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>200</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="202" spans="2:12">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>201</v>
       </c>
@@ -9093,20 +9096,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56062555-31F9-4969-BE51-16C635BF9077}">
   <dimension ref="B1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>10</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>658.57898818763567</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>658.70473545151469</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>460.69838484658266</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>460.34206112846124</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>5</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>658.61359158842151</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>6</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>658.30630726812876</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>1.7465348550773416</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -9358,7 +9361,7 @@
         <v>152.31361251050413</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>9</v>
       </c>
@@ -9387,7 +9390,7 @@
         <v>1.1090306578269136</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>10</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>1.3278271724889501</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>11</v>
       </c>
@@ -9445,7 +9448,7 @@
         <v>1.6479153497676997</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>12</v>
       </c>
@@ -9474,7 +9477,7 @@
         <v>1.2923234889144444</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>13</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>3.1658490172464067</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>14</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>5.4308378727411881</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>15</v>
       </c>
@@ -9561,7 +9564,7 @@
         <v>2.3608314213428998</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>16</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>0.92195444572928875</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>223.71493421092833</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>18</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>230.25833145404317</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>19</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>196.16196170575475</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>457.38115002697691</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>21</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>320.58729793926625</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>22</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>320.50235447653091</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>23</v>
       </c>
@@ -9793,7 +9796,7 @@
         <v>455.35693387166077</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>24</v>
       </c>
@@ -9822,7 +9825,7 @@
         <v>744.99800692954886</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>25</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>744.90085686368354</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>598.9492021206778</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>27</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>584.81960928904948</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>28</v>
       </c>
@@ -9937,8 +9940,15 @@
         <f>_xlfn.STDEV.P(Data!C29:L29)</f>
         <v>584.59555728725525</v>
       </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29">
+        <f>C201</f>
+        <v>4519.3999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>29</v>
       </c>
@@ -9974,7 +9984,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>30</v>
       </c>
@@ -10010,7 +10020,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>31</v>
       </c>
@@ -10046,7 +10056,7 @@
         <v>315.16002284553798</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>32</v>
       </c>
@@ -10075,7 +10085,7 @@
         <v>810.7777239169809</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>33</v>
       </c>
@@ -10104,7 +10114,7 @@
         <v>807.55218817423815</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>34</v>
       </c>
@@ -10133,7 +10143,7 @@
         <v>838.93603822043542</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>35</v>
       </c>
@@ -10162,7 +10172,7 @@
         <v>762.83561302550629</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>36</v>
       </c>
@@ -10191,7 +10201,7 @@
         <v>832.88526267442739</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>37</v>
       </c>
@@ -10220,7 +10230,7 @@
         <v>974.06017478387707</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>38</v>
       </c>
@@ -10249,7 +10259,7 @@
         <v>874.26506283849631</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>39</v>
       </c>
@@ -10278,7 +10288,7 @@
         <v>878.56960374520122</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>40</v>
       </c>
@@ -10307,7 +10317,7 @@
         <v>937.76949326580257</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>41</v>
       </c>
@@ -10336,7 +10346,7 @@
         <v>1052.4227637337572</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>42</v>
       </c>
@@ -10365,7 +10375,7 @@
         <v>924.56105996305075</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>43</v>
       </c>
@@ -10394,7 +10404,7 @@
         <v>1105.9887693824021</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>44</v>
       </c>
@@ -10423,7 +10433,7 @@
         <v>1112.3142762839107</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>45</v>
       </c>
@@ -10452,7 +10462,7 @@
         <v>1134.582654944099</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>46</v>
       </c>
@@ -10481,7 +10491,7 @@
         <v>1163.7948873474224</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>47</v>
       </c>
@@ -10510,7 +10520,7 @@
         <v>1263.1541562295556</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>48</v>
       </c>
@@ -10539,7 +10549,7 @@
         <v>1316.8999383400399</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>49</v>
       </c>
@@ -10568,7 +10578,7 @@
         <v>1052.4330422406927</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>50</v>
       </c>
@@ -10597,7 +10607,7 @@
         <v>1287.9034568728357</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>51</v>
       </c>
@@ -10626,7 +10636,7 @@
         <v>1261.0576188660057</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>52</v>
       </c>
@@ -10655,7 +10665,7 @@
         <v>1300.4494754723269</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>53</v>
       </c>
@@ -10684,7 +10694,7 @@
         <v>1194.6569232315182</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>54</v>
       </c>
@@ -10713,7 +10723,7 @@
         <v>1255.8110171916785</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>55</v>
       </c>
@@ -10742,7 +10752,7 @@
         <v>1168.7868745412902</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>56</v>
       </c>
@@ -10771,7 +10781,7 @@
         <v>1255.1842165993007</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>57</v>
       </c>
@@ -10800,7 +10810,7 @@
         <v>1292.0574361846304</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>58</v>
       </c>
@@ -10829,7 +10839,7 @@
         <v>1364.884321105638</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>59</v>
       </c>
@@ -10858,7 +10868,7 @@
         <v>1355.7672697129835</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>60</v>
       </c>
@@ -10887,7 +10897,7 @@
         <v>1319.542920721035</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>61</v>
       </c>
@@ -10916,7 +10926,7 @@
         <v>1319.3281590358783</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>62</v>
       </c>
@@ -10945,7 +10955,7 @@
         <v>1243.3205027264689</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>63</v>
       </c>
@@ -10974,7 +10984,7 @@
         <v>1339.7794184118518</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>64</v>
       </c>
@@ -11003,7 +11013,7 @@
         <v>1225.6170547932172</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>65</v>
       </c>
@@ -11032,7 +11042,7 @@
         <v>1202.7517478785887</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>66</v>
       </c>
@@ -11061,7 +11071,7 @@
         <v>1324.3529452623268</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>67</v>
       </c>
@@ -11090,7 +11100,7 @@
         <v>1262.6263107606305</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>68</v>
       </c>
@@ -11119,7 +11129,7 @@
         <v>1258.4572196145562</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>69</v>
       </c>
@@ -11148,7 +11158,7 @@
         <v>1251.1576964271926</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>70</v>
       </c>
@@ -11177,7 +11187,7 @@
         <v>1403.5531179919769</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>71</v>
       </c>
@@ -11206,7 +11216,7 @@
         <v>1306.5460428549775</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>72</v>
       </c>
@@ -11235,7 +11245,7 @@
         <v>1355.0277303804521</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>73</v>
       </c>
@@ -11264,7 +11274,7 @@
         <v>1239.0818724462886</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>74</v>
       </c>
@@ -11293,7 +11303,7 @@
         <v>1310.1136359205643</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>75</v>
       </c>
@@ -11322,7 +11332,7 @@
         <v>1272.1319067219404</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>76</v>
       </c>
@@ -11351,7 +11361,7 @@
         <v>1293.6030302994811</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>77</v>
       </c>
@@ -11380,7 +11390,7 @@
         <v>1388.2634076067845</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>78</v>
       </c>
@@ -11409,7 +11419,7 @@
         <v>1385.7056045567542</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>79</v>
       </c>
@@ -11438,7 +11448,7 @@
         <v>1326.9243116696596</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>80</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>1358.6176495246918</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>81</v>
       </c>
@@ -11496,7 +11506,7 @@
         <v>1365.3625556605834</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>82</v>
       </c>
@@ -11525,7 +11535,7 @@
         <v>1335.5439397114571</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>83</v>
       </c>
@@ -11554,7 +11564,7 @@
         <v>1347.5917491955788</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>84</v>
       </c>
@@ -11583,7 +11593,7 @@
         <v>1393.672308722535</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>85</v>
       </c>
@@ -11612,7 +11622,7 @@
         <v>1374.841114311032</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>86</v>
       </c>
@@ -11641,7 +11651,7 @@
         <v>1412.8454878365151</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>87</v>
       </c>
@@ -11670,7 +11680,7 @@
         <v>934.53599315382178</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>88</v>
       </c>
@@ -11699,7 +11709,7 @@
         <v>878.25219754920056</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>89</v>
       </c>
@@ -11728,7 +11738,7 @@
         <v>1336.0463652134233</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>90</v>
       </c>
@@ -11757,7 +11767,7 @@
         <v>1327.1156923569258</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>91</v>
       </c>
@@ -11786,7 +11796,7 @@
         <v>1137.5307512326865</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>92</v>
       </c>
@@ -11815,7 +11825,7 @@
         <v>1227.3090434055312</v>
       </c>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>93</v>
       </c>
@@ -11844,7 +11854,7 @@
         <v>1091.9714540224941</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>94</v>
       </c>
@@ -11873,7 +11883,7 @@
         <v>1394.3367917759319</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>95</v>
       </c>
@@ -11902,7 +11912,7 @@
         <v>1345.4221725911907</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>96</v>
       </c>
@@ -11931,7 +11941,7 @@
         <v>1377.9782062500115</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>97</v>
       </c>
@@ -11960,7 +11970,7 @@
         <v>1418.092388562889</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>98</v>
       </c>
@@ -11989,7 +11999,7 @@
         <v>1131.2279038726031</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>99</v>
       </c>
@@ -12018,7 +12028,7 @@
         <v>967.77323459579111</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>100</v>
       </c>
@@ -12047,7 +12057,7 @@
         <v>1120.8437458004571</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>101</v>
       </c>
@@ -12076,7 +12086,7 @@
         <v>1094.7258945051044</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>102</v>
       </c>
@@ -12105,7 +12115,7 @@
         <v>815.90520435893779</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>103</v>
       </c>
@@ -12134,7 +12144,7 @@
         <v>979.84008088054907</v>
       </c>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>104</v>
       </c>
@@ -12163,7 +12173,7 @@
         <v>995.74854255479579</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>105</v>
       </c>
@@ -12192,7 +12202,7 @@
         <v>490.87294038274683</v>
       </c>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>106</v>
       </c>
@@ -12221,7 +12231,7 @@
         <v>519.27161486066234</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>107</v>
       </c>
@@ -12250,7 +12260,7 @@
         <v>508.41013719240482</v>
       </c>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>108</v>
       </c>
@@ -12279,7 +12289,7 @@
         <v>438.02346969083743</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>109</v>
       </c>
@@ -12308,7 +12318,7 @@
         <v>390.67768044770611</v>
       </c>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>110</v>
       </c>
@@ -12337,7 +12347,7 @@
         <v>404.25932271253805</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>111</v>
       </c>
@@ -12366,7 +12376,7 @@
         <v>393.04280937322847</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>112</v>
       </c>
@@ -12395,7 +12405,7 @@
         <v>315.81578491266077</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>113</v>
       </c>
@@ -12424,7 +12434,7 @@
         <v>283.82580925631129</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>114</v>
       </c>
@@ -12453,7 +12463,7 @@
         <v>271.31612558047482</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>115</v>
       </c>
@@ -12482,7 +12492,7 @@
         <v>301.63249161852571</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>116</v>
       </c>
@@ -12511,7 +12521,7 @@
         <v>383.78509611500027</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>117</v>
       </c>
@@ -12540,7 +12550,7 @@
         <v>239.93142770383375</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>118</v>
       </c>
@@ -12569,7 +12579,7 @@
         <v>330.73106899715361</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>119</v>
       </c>
@@ -12598,7 +12608,7 @@
         <v>302.32062450319199</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>120</v>
       </c>
@@ -12627,7 +12637,7 @@
         <v>333.63848698853678</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>121</v>
       </c>
@@ -12656,7 +12666,7 @@
         <v>308.41692560558346</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>122</v>
       </c>
@@ -12685,7 +12695,7 @@
         <v>291.83640965445011</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>123</v>
       </c>
@@ -12714,7 +12724,7 @@
         <v>273.157628485825</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>124</v>
       </c>
@@ -12743,7 +12753,7 @@
         <v>352.03641857057914</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>125</v>
       </c>
@@ -12772,7 +12782,7 @@
         <v>330.42282003517857</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>126</v>
       </c>
@@ -12801,7 +12811,7 @@
         <v>316.36396760693214</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>127</v>
       </c>
@@ -12830,7 +12840,7 @@
         <v>327.42328872577161</v>
       </c>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>128</v>
       </c>
@@ -12859,7 +12869,7 @@
         <v>282.05183920690894</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>129</v>
       </c>
@@ -12888,7 +12898,7 @@
         <v>361.34493216316179</v>
       </c>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>130</v>
       </c>
@@ -12917,7 +12927,7 @@
         <v>277.65815313078781</v>
       </c>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>131</v>
       </c>
@@ -12946,7 +12956,7 @@
         <v>397.75324008736874</v>
       </c>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>132</v>
       </c>
@@ -12975,7 +12985,7 @@
         <v>295.06136649856415</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>133</v>
       </c>
@@ -13004,7 +13014,7 @@
         <v>347.3255533357717</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>134</v>
       </c>
@@ -13033,7 +13043,7 @@
         <v>366.79852780511533</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>135</v>
       </c>
@@ -13062,7 +13072,7 @@
         <v>384.09354329381796</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>136</v>
       </c>
@@ -13091,7 +13101,7 @@
         <v>325.05582597455469</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>137</v>
       </c>
@@ -13120,7 +13130,7 @@
         <v>345.0006521732966</v>
       </c>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>138</v>
       </c>
@@ -13149,7 +13159,7 @@
         <v>262.69459453898173</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>139</v>
       </c>
@@ -13178,7 +13188,7 @@
         <v>206.71874612622824</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>140</v>
       </c>
@@ -13207,7 +13217,7 @@
         <v>259.5470862868624</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>141</v>
       </c>
@@ -13236,7 +13246,7 @@
         <v>260.68105032779044</v>
       </c>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>142</v>
       </c>
@@ -13265,7 +13275,7 @@
         <v>341.25563731607423</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>143</v>
       </c>
@@ -13294,7 +13304,7 @@
         <v>319.64236264925842</v>
       </c>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>144</v>
       </c>
@@ -13323,7 +13333,7 @@
         <v>284.17510446905794</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>145</v>
       </c>
@@ -13352,7 +13362,7 @@
         <v>266.17777893731102</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>146</v>
       </c>
@@ -13381,7 +13391,7 @@
         <v>178.38635037468535</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>147</v>
       </c>
@@ -13410,7 +13420,7 @@
         <v>275.26278353602402</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>148</v>
       </c>
@@ -13439,7 +13449,7 @@
         <v>257.68703886691702</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>149</v>
       </c>
@@ -13468,7 +13478,7 @@
         <v>253.30536907061406</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>150</v>
       </c>
@@ -13497,7 +13507,7 @@
         <v>212.43834399655822</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>151</v>
       </c>
@@ -13526,7 +13536,7 @@
         <v>291.75853029517407</v>
       </c>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>152</v>
       </c>
@@ -13555,7 +13565,7 @@
         <v>329.36872954183127</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>153</v>
       </c>
@@ -13584,7 +13594,7 @@
         <v>239.32162459752777</v>
       </c>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>154</v>
       </c>
@@ -13613,7 +13623,7 @@
         <v>314.88721790507788</v>
       </c>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>155</v>
       </c>
@@ -13642,7 +13652,7 @@
         <v>228.38566067071724</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>156</v>
       </c>
@@ -13671,7 +13681,7 @@
         <v>300.83310987988011</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>157</v>
       </c>
@@ -13700,7 +13710,7 @@
         <v>264.16668980020927</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>158</v>
       </c>
@@ -13729,7 +13739,7 @@
         <v>388.37776712886131</v>
       </c>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>159</v>
       </c>
@@ -13758,7 +13768,7 @@
         <v>360.04678862614509</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>160</v>
       </c>
@@ -13787,7 +13797,7 @@
         <v>330.47179909940883</v>
       </c>
     </row>
-    <row r="162" spans="2:8">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>161</v>
       </c>
@@ -13816,7 +13826,7 @@
         <v>312.2415090919207</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>162</v>
       </c>
@@ -13845,7 +13855,7 @@
         <v>300.03906412332378</v>
       </c>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>163</v>
       </c>
@@ -13874,7 +13884,7 @@
         <v>321.09213630981372</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>164</v>
       </c>
@@ -13903,7 +13913,7 @@
         <v>290.13998345626203</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>165</v>
       </c>
@@ -13932,7 +13942,7 @@
         <v>334.66922475781962</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>166</v>
       </c>
@@ -13961,7 +13971,7 @@
         <v>295.40677040311721</v>
       </c>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>167</v>
       </c>
@@ -13990,7 +14000,7 @@
         <v>275.38075459261853</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>168</v>
       </c>
@@ -14019,7 +14029,7 @@
         <v>332.19309143930133</v>
       </c>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>169</v>
       </c>
@@ -14048,7 +14058,7 @@
         <v>295.63058028559897</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>170</v>
       </c>
@@ -14077,7 +14087,7 @@
         <v>278.48008905485506</v>
       </c>
     </row>
-    <row r="172" spans="2:8">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>171</v>
       </c>
@@ -14106,7 +14116,7 @@
         <v>243.77735743911902</v>
       </c>
     </row>
-    <row r="173" spans="2:8">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>172</v>
       </c>
@@ -14135,7 +14145,7 @@
         <v>268.99793679506166</v>
       </c>
     </row>
-    <row r="174" spans="2:8">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>173</v>
       </c>
@@ -14164,7 +14174,7 @@
         <v>365.84838389693618</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>174</v>
       </c>
@@ -14193,7 +14203,7 @@
         <v>316.38938035275459</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>175</v>
       </c>
@@ -14222,7 +14232,7 @@
         <v>329.71193487649185</v>
       </c>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>176</v>
       </c>
@@ -14251,7 +14261,7 @@
         <v>294.32492249213283</v>
       </c>
     </row>
-    <row r="178" spans="2:8">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>177</v>
       </c>
@@ -14280,7 +14290,7 @@
         <v>302.3031756366446</v>
       </c>
     </row>
-    <row r="179" spans="2:8">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>178</v>
       </c>
@@ -14309,7 +14319,7 @@
         <v>334.06143147630797</v>
       </c>
     </row>
-    <row r="180" spans="2:8">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>179</v>
       </c>
@@ -14338,7 +14348,7 @@
         <v>388.9621575423501</v>
       </c>
     </row>
-    <row r="181" spans="2:8">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>180</v>
       </c>
@@ -14367,7 +14377,7 @@
         <v>329.23397455305246</v>
       </c>
     </row>
-    <row r="182" spans="2:8">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>181</v>
       </c>
@@ -14396,7 +14406,7 @@
         <v>341.34447410204257</v>
       </c>
     </row>
-    <row r="183" spans="2:8">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>182</v>
       </c>
@@ -14425,7 +14435,7 @@
         <v>367.88889627168686</v>
       </c>
     </row>
-    <row r="184" spans="2:8">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>183</v>
       </c>
@@ -14454,7 +14464,7 @@
         <v>282.57036291868968</v>
       </c>
     </row>
-    <row r="185" spans="2:8">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>184</v>
       </c>
@@ -14483,7 +14493,7 @@
         <v>267.19573349887162</v>
       </c>
     </row>
-    <row r="186" spans="2:8">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>185</v>
       </c>
@@ -14512,7 +14522,7 @@
         <v>276.36571784503229</v>
       </c>
     </row>
-    <row r="187" spans="2:8">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>186</v>
       </c>
@@ -14541,7 +14551,7 @@
         <v>308.03480322846639</v>
       </c>
     </row>
-    <row r="188" spans="2:8">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>187</v>
       </c>
@@ -14570,7 +14580,7 @@
         <v>297.76482330859699</v>
       </c>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>188</v>
       </c>
@@ -14599,7 +14609,7 @@
         <v>273.98337540807103</v>
       </c>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>189</v>
       </c>
@@ -14628,7 +14638,7 @@
         <v>327.69101299852576</v>
       </c>
     </row>
-    <row r="191" spans="2:8">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>190</v>
       </c>
@@ -14657,7 +14667,7 @@
         <v>319.39849717868117</v>
       </c>
     </row>
-    <row r="192" spans="2:8">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>191</v>
       </c>
@@ -14686,7 +14696,7 @@
         <v>287.65682679192577</v>
       </c>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>192</v>
       </c>
@@ -14715,7 +14725,7 @@
         <v>345.28226134569962</v>
       </c>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>193</v>
       </c>
@@ -14744,7 +14754,7 @@
         <v>329.31579069337079</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>194</v>
       </c>
@@ -14773,7 +14783,7 @@
         <v>286.47626428728785</v>
       </c>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>195</v>
       </c>
@@ -14802,7 +14812,7 @@
         <v>357.48601371242484</v>
       </c>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>196</v>
       </c>
@@ -14831,7 +14841,7 @@
         <v>345.7598733225127</v>
       </c>
     </row>
-    <row r="198" spans="2:8">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>197</v>
       </c>
@@ -14860,7 +14870,7 @@
         <v>349.37120659836864</v>
       </c>
     </row>
-    <row r="199" spans="2:8">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>198</v>
       </c>
@@ -14889,7 +14899,7 @@
         <v>290.71216004838874</v>
       </c>
     </row>
-    <row r="200" spans="2:8">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>199</v>
       </c>
@@ -14918,7 +14928,7 @@
         <v>348.70709771956177</v>
       </c>
     </row>
-    <row r="201" spans="2:8">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>200</v>
       </c>
@@ -14947,7 +14957,7 @@
         <v>315.16002284553798</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>201</v>
       </c>
